--- a/Nhóm/TestScenario.xlsx
+++ b/Nhóm/TestScenario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/448d5621545efbd3/Thang/HOCTAP/2019-2020/HKII/KTPM/Nhóm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{F74E485B-4379-4E94-9D8A-1D999F21D0F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{781E22BA-9305-4204-8D73-2FB0124956C0}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{F74E485B-4379-4E94-9D8A-1D999F21D0F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D8606B57-0EA6-469D-9D54-344DAF6F5B79}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{FDE17A92-904B-42F4-9FAD-C9666220B1F7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Web cửa hàng âm nhạc sử dụng mô hình MVC</t>
   </si>
@@ -71,25 +71,59 @@
     <t>Kiểm tra chức năng giỏ hàng</t>
   </si>
   <si>
-    <t>1.3.1. Chọn sản phẩm bất kỳ
-1.3.2. Thêm sản phẩm với số lượng dương
-1.3.3. Thêm sản phẩm với số lượng âm
-1.3.4. Chọn sản phẩm cũ với số lượng âm
-1.3.5. Chọn sản phẩm trên đường link URL
-1.3.6. Thanh toán sản phẩm</t>
-  </si>
-  <si>
     <t>S1.4</t>
   </si>
   <si>
     <t>Kiểm tra chức năng cập nhật sản phẩm</t>
+  </si>
+  <si>
+    <t>1.1.1. Tên đăng nhập sai, mật khẩu sai
+1.1.2. Tên đăng nhập đúng, mật khẩu đúng
+1.1.3. Tên đăng nhập và mật khẩu chứa các ký tự không hợp lệ
+1.1.4. Kiểm tra lỗi SQL Injection</t>
+  </si>
+  <si>
+    <t>1.2.1. Tên sản phẩm không hợp lệ
+1.2.2. Tên sản phẩm hợp lệ
+1.2.3. Giá sản phẩm không hợp lệ
+1.2.4. Giá sản phẩm hợp lệ</t>
+  </si>
+  <si>
+    <t>1.4.1. Tên sản phẩm không hợp lệ
+1.4.2. Tên sản phẩm hợp lệ
+1.4.3. Giá sản phẩm không hợp lệ
+1.4.4. Giá sản phẩm hợp lệ</t>
+  </si>
+  <si>
+    <t>1.3.1. Thêm sản phẩm với số lượng dương
+1.3.2. Thêm sản phẩm với số lượng âm
+1.3.3. Thêm sản phẩm đã có trong giỏ hàng
+1.3.4. Loại bỏ sản phẩm ra khỏi giỏ hàng</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Nguyễn Thành Quốc</t>
+  </si>
+  <si>
+    <t>La Quốc Thắng</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Automation Testing with Unit Test</t>
+  </si>
+  <si>
+    <t>Trần Trọng Hiệp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,7 +220,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -212,14 +246,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Đầu đề 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Trung lập" xfId="2" builtinId="28"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,35 +571,39 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="18.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="19.5">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:4">
-      <c r="D3" s="4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -575,8 +616,14 @@
       <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -586,9 +633,17 @@
       <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -598,9 +653,17 @@
       <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" ht="90">
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -611,26 +674,40 @@
         <v>11</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Nhóm/TestScenario.xlsx
+++ b/Nhóm/TestScenario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/448d5621545efbd3/Thang/HOCTAP/2019-2020/HKII/KTPM/Nhóm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{F74E485B-4379-4E94-9D8A-1D999F21D0F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D8606B57-0EA6-469D-9D54-344DAF6F5B79}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{F74E485B-4379-4E94-9D8A-1D999F21D0F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D8A03828-94FB-4309-AA70-F83BBC114EBC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{FDE17A92-904B-42F4-9FAD-C9666220B1F7}"/>
   </bookViews>
@@ -53,46 +53,49 @@
     <t>Test Cases</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
     <t>S1.1</t>
   </si>
   <si>
     <t>Kiểm tra chức năng đăng nhập</t>
   </si>
   <si>
+    <t>1.1.1. Tên đăng nhập sai, mật khẩu sai_x000D_
+1.1.2. Tên đăng nhập đúng, mật khẩu đúng_x000D_
+1.1.3. Tên đăng nhập và mật khẩu chứa các ký tự không hợp lệ_x000D_
+1.1.4. Kiểm tra lỗi SQL Injection</t>
+  </si>
+  <si>
+    <t>Automation Testing with Unit Test</t>
+  </si>
+  <si>
+    <t>Trần Trọng Hiệp</t>
+  </si>
+  <si>
     <t>S1.2</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm sản phẩm</t>
-  </si>
-  <si>
-    <t>S1.3</t>
-  </si>
-  <si>
-    <t>Kiểm tra chức năng giỏ hàng</t>
-  </si>
-  <si>
-    <t>S1.4</t>
-  </si>
-  <si>
-    <t>Kiểm tra chức năng cập nhật sản phẩm</t>
-  </si>
-  <si>
-    <t>1.1.1. Tên đăng nhập sai, mật khẩu sai
-1.1.2. Tên đăng nhập đúng, mật khẩu đúng
-1.1.3. Tên đăng nhập và mật khẩu chứa các ký tự không hợp lệ
-1.1.4. Kiểm tra lỗi SQL Injection</t>
   </si>
   <si>
     <t>1.2.1. Tên sản phẩm không hợp lệ
 1.2.2. Tên sản phẩm hợp lệ
 1.2.3. Giá sản phẩm không hợp lệ
-1.2.4. Giá sản phẩm hợp lệ</t>
-  </si>
-  <si>
-    <t>1.4.1. Tên sản phẩm không hợp lệ
-1.4.2. Tên sản phẩm hợp lệ
-1.4.3. Giá sản phẩm không hợp lệ
-1.4.4. Giá sản phẩm hợp lệ</t>
+1.2.4. Thiếu một số trường bắt buộc</t>
+  </si>
+  <si>
+    <t>La Quốc Thắng</t>
+  </si>
+  <si>
+    <t>S1.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng giỏ hàng</t>
   </si>
   <si>
     <t>1.3.1. Thêm sản phẩm với số lượng dương
@@ -101,33 +104,30 @@
 1.3.4. Loại bỏ sản phẩm ra khỏi giỏ hàng</t>
   </si>
   <si>
-    <t>Tester</t>
-  </si>
-  <si>
     <t>Nguyễn Thành Quốc</t>
   </si>
   <si>
-    <t>La Quốc Thắng</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Automation Testing with Unit Test</t>
-  </si>
-  <si>
-    <t>Trần Trọng Hiệp</t>
+    <t>S1.4</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng cập nhật sản phẩm</t>
+  </si>
+  <si>
+    <t>1.4.1. Cập nhật sản phẩm mà sản phẩm đó chưa có trong hệ thống
+1.4.2. Cập nhật sản phẩm hợp lệ
+1.4.3. Cập nhật sản phẩm có giá không hợp lệ
+1.4.4. Thiếu một số trường bắt buộc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -135,14 +135,14 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -150,21 +150,21 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -254,9 +254,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Đầu đề 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Trung lập" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -573,22 +573,22 @@
   </sheetPr>
   <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="19.5">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -598,12 +598,12 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="F4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="2" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -617,90 +617,90 @@
         <v>5</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="90">
       <c r="A7" s="7">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="60">
       <c r="A8" s="7">
         <v>2</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="105">
       <c r="A9" s="7">
         <v>3</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="F9" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="90">
       <c r="A10" s="7">
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
